--- a/data/spreadsheets/2025/week3.xlsx
+++ b/data/spreadsheets/2025/week3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/892d7993c2952521/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{BE258096-A0F0-4CF2-A5AC-9AFCE90D5533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{68C6C57C-9E12-4493-9FE8-65B6B6D2FB03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr autoRecover="0" repairLoad="1"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1664,7 +1664,7 @@
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="76">
+  <fonts count="77">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2152,6 +2152,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="19">
@@ -2814,7 +2820,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="358">
+  <cellXfs count="361">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3682,6 +3688,26 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="73" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3707,25 +3733,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="73" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5290,7 +5305,7 @@
   <dimension ref="A2:AH727"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight" activeCell="A90" sqref="A90"/>
@@ -5309,27 +5324,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:34" ht="15" customHeight="1">
-      <c r="A2" s="344" t="s">
+      <c r="A2" s="352" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="345"/>
-      <c r="C2" s="345"/>
-      <c r="D2" s="345"/>
-      <c r="E2" s="345"/>
-      <c r="F2" s="345"/>
-      <c r="G2" s="345"/>
-      <c r="H2" s="345"/>
-      <c r="I2" s="345"/>
-      <c r="J2" s="345"/>
-      <c r="K2" s="346"/>
-      <c r="L2" s="346"/>
-      <c r="M2" s="346"/>
-      <c r="N2" s="346"/>
-      <c r="O2" s="346"/>
-      <c r="P2" s="346"/>
-      <c r="Q2" s="346"/>
-      <c r="R2" s="346"/>
-      <c r="S2" s="346"/>
+      <c r="B2" s="353"/>
+      <c r="C2" s="353"/>
+      <c r="D2" s="353"/>
+      <c r="E2" s="353"/>
+      <c r="F2" s="353"/>
+      <c r="G2" s="353"/>
+      <c r="H2" s="353"/>
+      <c r="I2" s="353"/>
+      <c r="J2" s="353"/>
+      <c r="K2" s="354"/>
+      <c r="L2" s="354"/>
+      <c r="M2" s="354"/>
+      <c r="N2" s="354"/>
+      <c r="O2" s="354"/>
+      <c r="P2" s="354"/>
+      <c r="Q2" s="354"/>
+      <c r="R2" s="354"/>
+      <c r="S2" s="354"/>
       <c r="T2" s="27"/>
       <c r="U2" s="27"/>
       <c r="V2" s="27"/>
@@ -5367,27 +5382,27 @@
       <c r="Z3" s="27"/>
     </row>
     <row r="4" spans="1:34" ht="15" customHeight="1">
-      <c r="A4" s="344" t="s">
+      <c r="A4" s="352" t="s">
         <v>427</v>
       </c>
-      <c r="B4" s="346"/>
-      <c r="C4" s="346"/>
-      <c r="D4" s="346"/>
-      <c r="E4" s="346"/>
-      <c r="F4" s="346"/>
-      <c r="G4" s="346"/>
-      <c r="H4" s="346"/>
-      <c r="I4" s="346"/>
-      <c r="J4" s="346"/>
-      <c r="K4" s="346"/>
-      <c r="L4" s="346"/>
-      <c r="M4" s="346"/>
-      <c r="N4" s="346"/>
-      <c r="O4" s="346"/>
-      <c r="P4" s="346"/>
-      <c r="Q4" s="346"/>
-      <c r="R4" s="346"/>
-      <c r="S4" s="346"/>
+      <c r="B4" s="354"/>
+      <c r="C4" s="354"/>
+      <c r="D4" s="354"/>
+      <c r="E4" s="354"/>
+      <c r="F4" s="354"/>
+      <c r="G4" s="354"/>
+      <c r="H4" s="354"/>
+      <c r="I4" s="354"/>
+      <c r="J4" s="354"/>
+      <c r="K4" s="354"/>
+      <c r="L4" s="354"/>
+      <c r="M4" s="354"/>
+      <c r="N4" s="354"/>
+      <c r="O4" s="354"/>
+      <c r="P4" s="354"/>
+      <c r="Q4" s="354"/>
+      <c r="R4" s="354"/>
+      <c r="S4" s="354"/>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
       <c r="V4" s="27"/>
@@ -5883,7 +5898,7 @@
       <c r="A14" s="295" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="341" t="s">
+      <c r="B14" s="349" t="s">
         <v>415</v>
       </c>
       <c r="C14" s="142">
@@ -5967,7 +5982,7 @@
       <c r="A15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="342"/>
+      <c r="B15" s="350"/>
       <c r="C15" s="29"/>
       <c r="D15" s="34"/>
       <c r="E15" s="36"/>
@@ -10368,46 +10383,44 @@
       <c r="AD91" s="109"/>
     </row>
     <row r="92" spans="1:33" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A92" s="67" t="s">
+      <c r="A92" s="358" t="s">
         <v>53</v>
       </c>
       <c r="B92" s="143"/>
-      <c r="C92" s="33"/>
-      <c r="D92" s="33"/>
-      <c r="E92" s="37"/>
-      <c r="F92" s="33"/>
-      <c r="G92" s="33"/>
-      <c r="H92" s="33"/>
-      <c r="I92" s="33">
-        <v>14</v>
-      </c>
-      <c r="J92" s="33">
+      <c r="C92" s="143"/>
+      <c r="D92" s="143"/>
+      <c r="E92" s="144"/>
+      <c r="F92" s="143"/>
+      <c r="G92" s="143"/>
+      <c r="H92" s="143"/>
+      <c r="I92" s="143"/>
+      <c r="J92" s="143">
         <v>4</v>
       </c>
-      <c r="K92" s="33"/>
-      <c r="L92" s="33"/>
-      <c r="M92" s="33"/>
-      <c r="N92" s="33"/>
-      <c r="O92" s="143"/>
-      <c r="P92" s="37"/>
-      <c r="Q92" s="350"/>
-      <c r="R92" s="135"/>
+      <c r="K92" s="143"/>
+      <c r="L92" s="143"/>
+      <c r="M92" s="143"/>
+      <c r="N92" s="143"/>
+      <c r="O92" s="33"/>
+      <c r="P92" s="144"/>
+      <c r="Q92" s="359"/>
+      <c r="R92" s="144"/>
       <c r="S92" s="144"/>
-      <c r="T92" s="75"/>
+      <c r="T92" s="145"/>
       <c r="U92" s="76"/>
-      <c r="V92" s="350"/>
-      <c r="W92" s="75"/>
-      <c r="X92" s="155"/>
-      <c r="Y92" s="75"/>
-      <c r="Z92" s="33"/>
+      <c r="V92" s="359"/>
+      <c r="W92" s="145"/>
+      <c r="X92" s="327"/>
+      <c r="Y92" s="145"/>
+      <c r="Z92" s="143"/>
       <c r="AB92" s="132"/>
-      <c r="AC92" s="265" t="s">
+      <c r="AC92" s="330" t="s">
         <v>105</v>
       </c>
       <c r="AD92" s="146"/>
-      <c r="AE92" s="316"/>
-      <c r="AF92" s="134"/>
-      <c r="AG92" s="134"/>
+      <c r="AE92" s="360"/>
+      <c r="AF92" s="132"/>
+      <c r="AG92" s="132"/>
     </row>
     <row r="93" spans="1:33" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A93" s="41" t="s">
@@ -10432,7 +10445,9 @@
       <c r="H93" s="34">
         <v>16</v>
       </c>
-      <c r="I93" s="34"/>
+      <c r="I93" s="34">
+        <v>14</v>
+      </c>
       <c r="J93" s="34"/>
       <c r="K93" s="34">
         <v>16</v>
@@ -10446,11 +10461,13 @@
       <c r="N93" s="34">
         <v>16</v>
       </c>
-      <c r="O93" s="34"/>
+      <c r="O93" s="34">
+        <v>1</v>
+      </c>
       <c r="P93" s="36">
         <v>16</v>
       </c>
-      <c r="Q93" s="351">
+      <c r="Q93" s="342">
         <v>16</v>
       </c>
       <c r="R93" s="136">
@@ -10462,8 +10479,10 @@
       <c r="T93" s="74">
         <v>15</v>
       </c>
-      <c r="U93" s="77"/>
-      <c r="V93" s="351">
+      <c r="U93" s="77">
+        <v>16</v>
+      </c>
+      <c r="V93" s="342">
         <v>16</v>
       </c>
       <c r="W93" s="74">
@@ -10502,17 +10521,17 @@
       <c r="I94" s="57"/>
       <c r="J94" s="57"/>
       <c r="K94" s="62"/>
-      <c r="L94" s="356"/>
+      <c r="L94" s="347"/>
       <c r="M94" s="60"/>
       <c r="N94" s="57"/>
       <c r="O94" s="57"/>
       <c r="P94" s="63"/>
-      <c r="Q94" s="352"/>
+      <c r="Q94" s="343"/>
       <c r="R94" s="137"/>
       <c r="S94" s="137"/>
       <c r="T94" s="137"/>
       <c r="U94" s="137"/>
-      <c r="V94" s="352"/>
+      <c r="V94" s="343"/>
       <c r="W94" s="137"/>
       <c r="X94" s="63"/>
       <c r="Y94" s="63"/>
@@ -10563,11 +10582,13 @@
       <c r="N95" s="33">
         <v>13</v>
       </c>
-      <c r="O95" s="33"/>
+      <c r="O95" s="33">
+        <v>12</v>
+      </c>
       <c r="P95" s="37">
         <v>2</v>
       </c>
-      <c r="Q95" s="350">
+      <c r="Q95" s="341">
         <v>1</v>
       </c>
       <c r="R95" s="135">
@@ -10579,8 +10600,10 @@
       <c r="T95" s="75">
         <v>8</v>
       </c>
-      <c r="U95" s="75"/>
-      <c r="V95" s="350">
+      <c r="U95" s="75">
+        <v>9</v>
+      </c>
+      <c r="V95" s="341">
         <v>10</v>
       </c>
       <c r="W95" s="75">
@@ -10625,14 +10648,14 @@
       <c r="L96" s="34"/>
       <c r="M96" s="34"/>
       <c r="N96" s="34"/>
-      <c r="O96" s="149"/>
+      <c r="O96" s="34"/>
       <c r="P96" s="36"/>
-      <c r="Q96" s="351"/>
+      <c r="Q96" s="342"/>
       <c r="R96" s="136"/>
       <c r="S96" s="150"/>
       <c r="T96" s="74"/>
       <c r="U96" s="74"/>
-      <c r="V96" s="351"/>
+      <c r="V96" s="342"/>
       <c r="W96" s="74"/>
       <c r="X96" s="156"/>
       <c r="Y96" s="74"/>
@@ -10687,11 +10710,13 @@
       <c r="N97" s="33">
         <v>15</v>
       </c>
-      <c r="O97" s="143"/>
+      <c r="O97" s="33">
+        <v>14</v>
+      </c>
       <c r="P97" s="37">
         <v>13</v>
       </c>
-      <c r="Q97" s="350">
+      <c r="Q97" s="341">
         <v>15</v>
       </c>
       <c r="R97" s="135">
@@ -10703,8 +10728,10 @@
       <c r="T97" s="75">
         <v>14</v>
       </c>
-      <c r="U97" s="76"/>
-      <c r="V97" s="350">
+      <c r="U97" s="76">
+        <v>8</v>
+      </c>
+      <c r="V97" s="341">
         <v>15</v>
       </c>
       <c r="W97" s="75">
@@ -10747,12 +10774,12 @@
       <c r="N98" s="34"/>
       <c r="O98" s="34"/>
       <c r="P98" s="36"/>
-      <c r="Q98" s="351"/>
+      <c r="Q98" s="342"/>
       <c r="R98" s="136"/>
       <c r="S98" s="136"/>
       <c r="T98" s="74"/>
       <c r="U98" s="77"/>
-      <c r="V98" s="351"/>
+      <c r="V98" s="342"/>
       <c r="W98" s="74"/>
       <c r="X98" s="156"/>
       <c r="Y98" s="74"/>
@@ -10790,16 +10817,16 @@
       </c>
       <c r="M99" s="33"/>
       <c r="N99" s="33"/>
-      <c r="O99" s="143"/>
+      <c r="O99" s="33"/>
       <c r="P99" s="37">
         <v>3</v>
       </c>
-      <c r="Q99" s="350"/>
+      <c r="Q99" s="341"/>
       <c r="R99" s="135"/>
       <c r="S99" s="144"/>
       <c r="T99" s="75"/>
       <c r="U99" s="75"/>
-      <c r="V99" s="350">
+      <c r="V99" s="341">
         <v>1</v>
       </c>
       <c r="W99" s="75"/>
@@ -10853,9 +10880,11 @@
       <c r="N100" s="34">
         <v>5</v>
       </c>
-      <c r="O100" s="34"/>
+      <c r="O100" s="34">
+        <v>13</v>
+      </c>
       <c r="P100" s="36"/>
-      <c r="Q100" s="351">
+      <c r="Q100" s="342">
         <v>2</v>
       </c>
       <c r="R100" s="136">
@@ -10867,8 +10896,10 @@
       <c r="T100" s="74">
         <v>6</v>
       </c>
-      <c r="U100" s="74"/>
-      <c r="V100" s="351"/>
+      <c r="U100" s="74">
+        <v>1</v>
+      </c>
+      <c r="V100" s="342"/>
       <c r="W100" s="74">
         <v>2</v>
       </c>
@@ -10912,14 +10943,14 @@
       <c r="N101" s="33"/>
       <c r="O101" s="33"/>
       <c r="P101" s="37"/>
-      <c r="Q101" s="350">
+      <c r="Q101" s="341">
         <v>3</v>
       </c>
       <c r="R101" s="135"/>
       <c r="S101" s="135"/>
       <c r="T101" s="75"/>
       <c r="U101" s="75"/>
-      <c r="V101" s="350"/>
+      <c r="V101" s="341"/>
       <c r="W101" s="75">
         <v>3</v>
       </c>
@@ -10973,11 +11004,13 @@
       <c r="N102" s="34">
         <v>2</v>
       </c>
-      <c r="O102" s="149"/>
+      <c r="O102" s="34">
+        <v>10</v>
+      </c>
       <c r="P102" s="36">
         <v>9</v>
       </c>
-      <c r="Q102" s="351"/>
+      <c r="Q102" s="342"/>
       <c r="R102" s="136">
         <v>3</v>
       </c>
@@ -10987,8 +11020,10 @@
       <c r="T102" s="74">
         <v>12</v>
       </c>
-      <c r="U102" s="74"/>
-      <c r="V102" s="351">
+      <c r="U102" s="74">
+        <v>7</v>
+      </c>
+      <c r="V102" s="342">
         <v>5</v>
       </c>
       <c r="W102" s="74"/>
@@ -11044,11 +11079,11 @@
         <v>7</v>
       </c>
       <c r="N103" s="33"/>
-      <c r="O103" s="143"/>
+      <c r="O103" s="33"/>
       <c r="P103" s="37">
         <v>1</v>
       </c>
-      <c r="Q103" s="350"/>
+      <c r="Q103" s="341"/>
       <c r="R103" s="135">
         <v>4</v>
       </c>
@@ -11057,7 +11092,7 @@
         <v>4</v>
       </c>
       <c r="U103" s="75"/>
-      <c r="V103" s="350">
+      <c r="V103" s="341">
         <v>2</v>
       </c>
       <c r="W103" s="75"/>
@@ -11103,9 +11138,11 @@
       <c r="N104" s="34">
         <v>1</v>
       </c>
-      <c r="O104" s="34"/>
+      <c r="O104" s="34">
+        <v>2</v>
+      </c>
       <c r="P104" s="36"/>
-      <c r="Q104" s="351">
+      <c r="Q104" s="342">
         <v>4</v>
       </c>
       <c r="R104" s="136"/>
@@ -11113,8 +11150,10 @@
         <v>6</v>
       </c>
       <c r="T104" s="74"/>
-      <c r="U104" s="74"/>
-      <c r="V104" s="351"/>
+      <c r="U104" s="74">
+        <v>4</v>
+      </c>
+      <c r="V104" s="342"/>
       <c r="W104" s="74">
         <v>4</v>
       </c>
@@ -11154,12 +11193,12 @@
       <c r="P105" s="37">
         <v>4</v>
       </c>
-      <c r="Q105" s="350"/>
+      <c r="Q105" s="341"/>
       <c r="R105" s="135"/>
       <c r="S105" s="135"/>
       <c r="T105" s="75"/>
       <c r="U105" s="75"/>
-      <c r="V105" s="350"/>
+      <c r="V105" s="341"/>
       <c r="W105" s="75"/>
       <c r="X105" s="155"/>
       <c r="Y105" s="75"/>
@@ -11214,9 +11253,11 @@
       <c r="N106" s="34">
         <v>10</v>
       </c>
-      <c r="O106" s="149"/>
+      <c r="O106" s="34">
+        <v>9</v>
+      </c>
       <c r="P106" s="36"/>
-      <c r="Q106" s="351">
+      <c r="Q106" s="342">
         <v>10</v>
       </c>
       <c r="R106" s="136">
@@ -11228,8 +11269,10 @@
       <c r="T106" s="74">
         <v>7</v>
       </c>
-      <c r="U106" s="74"/>
-      <c r="V106" s="351">
+      <c r="U106" s="74">
+        <v>15</v>
+      </c>
+      <c r="V106" s="342">
         <v>6</v>
       </c>
       <c r="W106" s="74">
@@ -11275,12 +11318,12 @@
       <c r="N107" s="33"/>
       <c r="O107" s="33"/>
       <c r="P107" s="37"/>
-      <c r="Q107" s="350"/>
+      <c r="Q107" s="341"/>
       <c r="R107" s="135"/>
       <c r="S107" s="135"/>
       <c r="T107" s="75"/>
       <c r="U107" s="75"/>
-      <c r="V107" s="350"/>
+      <c r="V107" s="341"/>
       <c r="W107" s="75"/>
       <c r="X107" s="155"/>
       <c r="Y107" s="75"/>
@@ -11334,11 +11377,13 @@
       <c r="N108" s="34">
         <v>11</v>
       </c>
-      <c r="O108" s="149"/>
+      <c r="O108" s="34">
+        <v>15</v>
+      </c>
       <c r="P108" s="36">
         <v>15</v>
       </c>
-      <c r="Q108" s="351">
+      <c r="Q108" s="342">
         <v>12</v>
       </c>
       <c r="R108" s="136">
@@ -11350,8 +11395,10 @@
       <c r="T108" s="74">
         <v>13</v>
       </c>
-      <c r="U108" s="74"/>
-      <c r="V108" s="351">
+      <c r="U108" s="74">
+        <v>14</v>
+      </c>
+      <c r="V108" s="342">
         <v>11</v>
       </c>
       <c r="W108" s="74">
@@ -11414,7 +11461,7 @@
       <c r="P109" s="37">
         <v>8</v>
       </c>
-      <c r="Q109" s="350">
+      <c r="Q109" s="341">
         <v>11</v>
       </c>
       <c r="R109" s="135">
@@ -11427,7 +11474,7 @@
         <v>11</v>
       </c>
       <c r="U109" s="75"/>
-      <c r="V109" s="350">
+      <c r="V109" s="341">
         <v>12</v>
       </c>
       <c r="W109" s="75">
@@ -11470,14 +11517,18 @@
         <v>6</v>
       </c>
       <c r="N110" s="34"/>
-      <c r="O110" s="149"/>
+      <c r="O110" s="34">
+        <v>3</v>
+      </c>
       <c r="P110" s="36"/>
-      <c r="Q110" s="351"/>
+      <c r="Q110" s="342"/>
       <c r="R110" s="136"/>
       <c r="S110" s="150"/>
       <c r="T110" s="74"/>
-      <c r="U110" s="74"/>
-      <c r="V110" s="351"/>
+      <c r="U110" s="74">
+        <v>5</v>
+      </c>
+      <c r="V110" s="342"/>
       <c r="W110" s="74"/>
       <c r="X110" s="156"/>
       <c r="Y110" s="74"/>
@@ -11508,16 +11559,18 @@
         <v>1</v>
       </c>
       <c r="N111" s="33"/>
-      <c r="O111" s="143"/>
+      <c r="O111" s="33"/>
       <c r="P111" s="37">
         <v>11</v>
       </c>
-      <c r="Q111" s="350"/>
+      <c r="Q111" s="341"/>
       <c r="R111" s="135"/>
       <c r="S111" s="144"/>
       <c r="T111" s="75"/>
-      <c r="U111" s="75"/>
-      <c r="V111" s="350">
+      <c r="U111" s="75">
+        <v>6</v>
+      </c>
+      <c r="V111" s="341">
         <v>4</v>
       </c>
       <c r="W111" s="75"/>
@@ -11570,9 +11623,11 @@
       <c r="N112" s="34">
         <v>3</v>
       </c>
-      <c r="O112" s="34"/>
+      <c r="O112" s="34">
+        <v>4</v>
+      </c>
       <c r="P112" s="36"/>
-      <c r="Q112" s="351">
+      <c r="Q112" s="342">
         <v>8</v>
       </c>
       <c r="R112" s="136">
@@ -11585,7 +11640,7 @@
         <v>9</v>
       </c>
       <c r="U112" s="74"/>
-      <c r="V112" s="351"/>
+      <c r="V112" s="342"/>
       <c r="W112" s="74">
         <v>8</v>
       </c>
@@ -11622,12 +11677,12 @@
       <c r="N113" s="33"/>
       <c r="O113" s="33"/>
       <c r="P113" s="37"/>
-      <c r="Q113" s="350"/>
+      <c r="Q113" s="341"/>
       <c r="R113" s="135"/>
       <c r="S113" s="135"/>
       <c r="T113" s="75"/>
       <c r="U113" s="75"/>
-      <c r="V113" s="350"/>
+      <c r="V113" s="341"/>
       <c r="W113" s="75"/>
       <c r="X113" s="155"/>
       <c r="Y113" s="75"/>
@@ -11674,11 +11729,13 @@
       <c r="N114" s="34">
         <v>4</v>
       </c>
-      <c r="O114" s="149"/>
+      <c r="O114" s="34">
+        <v>7</v>
+      </c>
       <c r="P114" s="36">
         <v>10</v>
       </c>
-      <c r="Q114" s="351">
+      <c r="Q114" s="342">
         <v>5</v>
       </c>
       <c r="R114" s="136">
@@ -11690,8 +11747,10 @@
       <c r="T114" s="74">
         <v>3</v>
       </c>
-      <c r="U114" s="74"/>
-      <c r="V114" s="351">
+      <c r="U114" s="74">
+        <v>3</v>
+      </c>
+      <c r="V114" s="342">
         <v>8</v>
       </c>
       <c r="W114" s="74">
@@ -11729,12 +11788,12 @@
       <c r="N115" s="33"/>
       <c r="O115" s="33"/>
       <c r="P115" s="37"/>
-      <c r="Q115" s="350"/>
+      <c r="Q115" s="341"/>
       <c r="R115" s="135"/>
       <c r="S115" s="135"/>
       <c r="T115" s="75"/>
       <c r="U115" s="75"/>
-      <c r="V115" s="350"/>
+      <c r="V115" s="341"/>
       <c r="W115" s="75"/>
       <c r="X115" s="155"/>
       <c r="Y115" s="75"/>
@@ -11785,11 +11844,13 @@
       <c r="N116" s="34">
         <v>14</v>
       </c>
-      <c r="O116" s="149"/>
+      <c r="O116" s="34">
+        <v>16</v>
+      </c>
       <c r="P116" s="36">
         <v>12</v>
       </c>
-      <c r="Q116" s="351">
+      <c r="Q116" s="342">
         <v>13</v>
       </c>
       <c r="R116" s="136">
@@ -11801,8 +11862,10 @@
       <c r="T116" s="74">
         <v>2</v>
       </c>
-      <c r="U116" s="74"/>
-      <c r="V116" s="351">
+      <c r="U116" s="74">
+        <v>11</v>
+      </c>
+      <c r="V116" s="342">
         <v>13</v>
       </c>
       <c r="W116" s="74">
@@ -11861,9 +11924,13 @@
       <c r="N117" s="33">
         <v>8</v>
       </c>
-      <c r="O117" s="143"/>
-      <c r="P117" s="37"/>
-      <c r="Q117" s="350">
+      <c r="O117" s="33">
+        <v>5</v>
+      </c>
+      <c r="P117" s="37">
+        <v>14</v>
+      </c>
+      <c r="Q117" s="341">
         <v>7</v>
       </c>
       <c r="R117" s="135">
@@ -11875,8 +11942,10 @@
       <c r="T117" s="75">
         <v>5</v>
       </c>
-      <c r="U117" s="75"/>
-      <c r="V117" s="350">
+      <c r="U117" s="75">
+        <v>13</v>
+      </c>
+      <c r="V117" s="341">
         <v>9</v>
       </c>
       <c r="W117" s="75">
@@ -11919,12 +11988,12 @@
       <c r="N118" s="34"/>
       <c r="O118" s="34"/>
       <c r="P118" s="36"/>
-      <c r="Q118" s="351"/>
+      <c r="Q118" s="342"/>
       <c r="R118" s="136"/>
       <c r="S118" s="136"/>
       <c r="T118" s="74"/>
       <c r="U118" s="74"/>
-      <c r="V118" s="351"/>
+      <c r="V118" s="342"/>
       <c r="W118" s="74"/>
       <c r="X118" s="156"/>
       <c r="Y118" s="74">
@@ -11973,14 +12042,16 @@
       <c r="P119" s="37">
         <v>7</v>
       </c>
-      <c r="Q119" s="350"/>
+      <c r="Q119" s="341"/>
       <c r="R119" s="135"/>
       <c r="S119" s="135"/>
       <c r="T119" s="75">
         <v>1</v>
       </c>
-      <c r="U119" s="75"/>
-      <c r="V119" s="350"/>
+      <c r="U119" s="75">
+        <v>12</v>
+      </c>
+      <c r="V119" s="341"/>
       <c r="W119" s="75"/>
       <c r="X119" s="155">
         <v>3</v>
@@ -12021,9 +12092,11 @@
       <c r="N120" s="34">
         <v>7</v>
       </c>
-      <c r="O120" s="149"/>
+      <c r="O120" s="34">
+        <v>11</v>
+      </c>
       <c r="P120" s="36"/>
-      <c r="Q120" s="351">
+      <c r="Q120" s="342">
         <v>6</v>
       </c>
       <c r="R120" s="136">
@@ -12034,7 +12107,7 @@
       </c>
       <c r="T120" s="74"/>
       <c r="U120" s="74"/>
-      <c r="V120" s="351">
+      <c r="V120" s="342">
         <v>7</v>
       </c>
       <c r="W120" s="74">
@@ -12093,11 +12166,13 @@
       <c r="N121" s="33">
         <v>12</v>
       </c>
-      <c r="O121" s="33"/>
+      <c r="O121" s="33">
+        <v>8</v>
+      </c>
       <c r="P121" s="37">
         <v>6</v>
       </c>
-      <c r="Q121" s="350">
+      <c r="Q121" s="341">
         <v>14</v>
       </c>
       <c r="R121" s="135">
@@ -12110,7 +12185,7 @@
         <v>10</v>
       </c>
       <c r="U121" s="75"/>
-      <c r="V121" s="350">
+      <c r="V121" s="341">
         <v>14</v>
       </c>
       <c r="W121" s="75">
@@ -12153,12 +12228,14 @@
       <c r="N122" s="33"/>
       <c r="O122" s="33"/>
       <c r="P122" s="37"/>
-      <c r="Q122" s="350"/>
+      <c r="Q122" s="341"/>
       <c r="R122" s="135"/>
       <c r="S122" s="135"/>
       <c r="T122" s="75"/>
-      <c r="U122" s="76"/>
-      <c r="V122" s="350"/>
+      <c r="U122" s="76">
+        <v>2</v>
+      </c>
+      <c r="V122" s="341"/>
       <c r="W122" s="75"/>
       <c r="X122" s="155"/>
       <c r="Y122" s="75"/>
@@ -12185,17 +12262,17 @@
       <c r="I123" s="57"/>
       <c r="J123" s="57"/>
       <c r="K123" s="62"/>
-      <c r="L123" s="356"/>
+      <c r="L123" s="347"/>
       <c r="M123" s="60"/>
       <c r="N123" s="57"/>
       <c r="O123" s="57"/>
       <c r="P123" s="63"/>
-      <c r="Q123" s="352"/>
+      <c r="Q123" s="343"/>
       <c r="R123" s="137"/>
       <c r="S123" s="137"/>
       <c r="T123" s="137"/>
       <c r="U123" s="137"/>
-      <c r="V123" s="352"/>
+      <c r="V123" s="343"/>
       <c r="W123" s="137"/>
       <c r="X123" s="63"/>
       <c r="Y123" s="63"/>
@@ -12228,14 +12305,14 @@
       <c r="P124" s="37">
         <v>5</v>
       </c>
-      <c r="Q124" s="350"/>
+      <c r="Q124" s="341"/>
       <c r="R124" s="135"/>
       <c r="S124" s="135"/>
       <c r="T124" s="75">
         <v>16</v>
       </c>
       <c r="U124" s="75"/>
-      <c r="V124" s="353"/>
+      <c r="V124" s="344"/>
       <c r="W124" s="75"/>
       <c r="X124" s="155"/>
       <c r="Y124" s="75"/>
@@ -12288,9 +12365,11 @@
       <c r="N125" s="34">
         <v>9</v>
       </c>
-      <c r="O125" s="161"/>
-      <c r="P125" s="357"/>
-      <c r="Q125" s="355">
+      <c r="O125" s="44">
+        <v>6</v>
+      </c>
+      <c r="P125" s="348"/>
+      <c r="Q125" s="346">
         <v>9</v>
       </c>
       <c r="R125" s="339">
@@ -12300,8 +12379,10 @@
         <v>2</v>
       </c>
       <c r="T125" s="79"/>
-      <c r="U125" s="74"/>
-      <c r="V125" s="354">
+      <c r="U125" s="77">
+        <v>10</v>
+      </c>
+      <c r="V125" s="345">
         <v>3</v>
       </c>
       <c r="W125" s="80">
@@ -12412,11 +12493,11 @@
       </c>
       <c r="O127" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="P127" s="11">
         <f t="shared" si="4"/>
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="Q127" s="11">
         <f t="shared" si="4"/>
@@ -12436,7 +12517,7 @@
       </c>
       <c r="U127" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="V127" s="11">
         <f t="shared" si="4"/>
@@ -12769,7 +12850,7 @@
       <c r="A137" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B137" s="341" t="s">
+      <c r="B137" s="349" t="s">
         <v>64</v>
       </c>
       <c r="C137" s="142"/>
@@ -12806,7 +12887,7 @@
       <c r="A138" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B138" s="347"/>
+      <c r="B138" s="355"/>
       <c r="C138" s="29"/>
       <c r="D138" s="34"/>
       <c r="E138" s="36"/>
@@ -14217,7 +14298,7 @@
       <c r="A178" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B178" s="341" t="s">
+      <c r="B178" s="349" t="s">
         <v>64</v>
       </c>
       <c r="C178" s="143"/>
@@ -14253,7 +14334,7 @@
       <c r="A179" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B179" s="347"/>
+      <c r="B179" s="355"/>
       <c r="C179" s="34"/>
       <c r="D179" s="34"/>
       <c r="E179" s="36"/>
@@ -15428,7 +15509,7 @@
       <c r="A215" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B215" s="341" t="s">
+      <c r="B215" s="349" t="s">
         <v>65</v>
       </c>
       <c r="C215" s="142"/>
@@ -15465,7 +15546,7 @@
       <c r="A216" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B216" s="347"/>
+      <c r="B216" s="355"/>
       <c r="C216" s="29"/>
       <c r="D216" s="34"/>
       <c r="E216" s="36"/>
@@ -16815,7 +16896,7 @@
       <c r="A254" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B254" s="341" t="s">
+      <c r="B254" s="349" t="s">
         <v>64</v>
       </c>
       <c r="C254" s="142"/>
@@ -16852,7 +16933,7 @@
       <c r="A255" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B255" s="343"/>
+      <c r="B255" s="351"/>
       <c r="C255" s="29"/>
       <c r="D255" s="29"/>
       <c r="E255" s="36"/>
@@ -32955,27 +33036,27 @@
   <sheetData>
     <row r="1" spans="1:31" ht="15" customHeight="1"/>
     <row r="2" spans="1:31" ht="15" customHeight="1">
-      <c r="A2" s="344"/>
-      <c r="B2" s="345"/>
-      <c r="C2" s="345"/>
-      <c r="D2" s="345"/>
-      <c r="E2" s="345"/>
-      <c r="F2" s="345"/>
-      <c r="G2" s="345"/>
-      <c r="H2" s="345"/>
-      <c r="I2" s="345"/>
-      <c r="J2" s="345"/>
-      <c r="K2" s="345"/>
-      <c r="L2" s="345"/>
-      <c r="M2" s="346"/>
-      <c r="N2" s="346"/>
-      <c r="O2" s="346"/>
-      <c r="P2" s="346"/>
-      <c r="Q2" s="346"/>
-      <c r="R2" s="346"/>
-      <c r="S2" s="346"/>
-      <c r="T2" s="346"/>
-      <c r="U2" s="346"/>
+      <c r="A2" s="352"/>
+      <c r="B2" s="353"/>
+      <c r="C2" s="353"/>
+      <c r="D2" s="353"/>
+      <c r="E2" s="353"/>
+      <c r="F2" s="353"/>
+      <c r="G2" s="353"/>
+      <c r="H2" s="353"/>
+      <c r="I2" s="353"/>
+      <c r="J2" s="353"/>
+      <c r="K2" s="353"/>
+      <c r="L2" s="353"/>
+      <c r="M2" s="354"/>
+      <c r="N2" s="354"/>
+      <c r="O2" s="354"/>
+      <c r="P2" s="354"/>
+      <c r="Q2" s="354"/>
+      <c r="R2" s="354"/>
+      <c r="S2" s="354"/>
+      <c r="T2" s="354"/>
+      <c r="U2" s="354"/>
       <c r="V2" s="27"/>
       <c r="W2" s="27"/>
       <c r="X2" s="27"/>
@@ -33011,27 +33092,27 @@
       <c r="Z3" s="27"/>
     </row>
     <row r="4" spans="1:31" ht="15" customHeight="1">
-      <c r="A4" s="344"/>
-      <c r="B4" s="346"/>
-      <c r="C4" s="346"/>
-      <c r="D4" s="346"/>
-      <c r="E4" s="346"/>
-      <c r="F4" s="346"/>
-      <c r="G4" s="346"/>
-      <c r="H4" s="346"/>
-      <c r="I4" s="346"/>
-      <c r="J4" s="346"/>
-      <c r="K4" s="346"/>
-      <c r="L4" s="346"/>
-      <c r="M4" s="346"/>
-      <c r="N4" s="346"/>
-      <c r="O4" s="346"/>
-      <c r="P4" s="346"/>
-      <c r="Q4" s="346"/>
-      <c r="R4" s="346"/>
-      <c r="S4" s="346"/>
-      <c r="T4" s="346"/>
-      <c r="U4" s="346"/>
+      <c r="A4" s="352"/>
+      <c r="B4" s="354"/>
+      <c r="C4" s="354"/>
+      <c r="D4" s="354"/>
+      <c r="E4" s="354"/>
+      <c r="F4" s="354"/>
+      <c r="G4" s="354"/>
+      <c r="H4" s="354"/>
+      <c r="I4" s="354"/>
+      <c r="J4" s="354"/>
+      <c r="K4" s="354"/>
+      <c r="L4" s="354"/>
+      <c r="M4" s="354"/>
+      <c r="N4" s="354"/>
+      <c r="O4" s="354"/>
+      <c r="P4" s="354"/>
+      <c r="Q4" s="354"/>
+      <c r="R4" s="354"/>
+      <c r="S4" s="354"/>
+      <c r="T4" s="354"/>
+      <c r="U4" s="354"/>
       <c r="V4" s="27"/>
       <c r="W4" s="27"/>
       <c r="X4" s="27"/>
@@ -33340,7 +33421,7 @@
     </row>
     <row r="15" spans="1:31" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="9"/>
-      <c r="B15" s="341"/>
+      <c r="B15" s="349"/>
       <c r="C15" s="28"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
@@ -33373,7 +33454,7 @@
     </row>
     <row r="16" spans="1:31" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="7"/>
-      <c r="B16" s="342"/>
+      <c r="B16" s="350"/>
       <c r="C16" s="29"/>
       <c r="D16" s="34"/>
       <c r="E16" s="34"/>
@@ -37231,7 +37312,7 @@
     </row>
     <row r="140" spans="1:31" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A140" s="9"/>
-      <c r="B140" s="341"/>
+      <c r="B140" s="349"/>
       <c r="C140" s="28"/>
       <c r="D140" s="33"/>
       <c r="E140" s="37"/>
@@ -37261,7 +37342,7 @@
     </row>
     <row r="141" spans="1:31" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A141" s="7"/>
-      <c r="B141" s="347"/>
+      <c r="B141" s="355"/>
       <c r="C141" s="29"/>
       <c r="D141" s="34"/>
       <c r="E141" s="36"/>
@@ -38509,7 +38590,7 @@
     </row>
     <row r="181" spans="1:31" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A181" s="9"/>
-      <c r="B181" s="341"/>
+      <c r="B181" s="349"/>
       <c r="C181" s="33"/>
       <c r="D181" s="33"/>
       <c r="E181" s="37"/>
@@ -38539,7 +38620,7 @@
     </row>
     <row r="182" spans="1:31" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A182" s="7"/>
-      <c r="B182" s="347"/>
+      <c r="B182" s="355"/>
       <c r="C182" s="34"/>
       <c r="D182" s="34"/>
       <c r="E182" s="36"/>
@@ -39622,7 +39703,7 @@
     </row>
     <row r="218" spans="1:32" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A218" s="9"/>
-      <c r="B218" s="341"/>
+      <c r="B218" s="349"/>
       <c r="C218" s="28"/>
       <c r="D218" s="33"/>
       <c r="E218" s="37"/>
@@ -39652,7 +39733,7 @@
     </row>
     <row r="219" spans="1:32" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A219" s="7"/>
-      <c r="B219" s="347"/>
+      <c r="B219" s="355"/>
       <c r="C219" s="29"/>
       <c r="D219" s="34"/>
       <c r="E219" s="36"/>
@@ -40792,7 +40873,7 @@
     </row>
     <row r="255" spans="1:32" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A255" s="9"/>
-      <c r="B255" s="341"/>
+      <c r="B255" s="349"/>
       <c r="C255" s="28"/>
       <c r="D255" s="33"/>
       <c r="E255" s="37"/>
@@ -40822,7 +40903,7 @@
     </row>
     <row r="256" spans="1:32" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A256" s="7"/>
-      <c r="B256" s="343"/>
+      <c r="B256" s="351"/>
       <c r="C256" s="29"/>
       <c r="D256" s="34"/>
       <c r="E256" s="36"/>
@@ -44575,7 +44656,7 @@
     </row>
     <row r="377" spans="1:32" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A377" s="9"/>
-      <c r="B377" s="341"/>
+      <c r="B377" s="349"/>
       <c r="C377" s="28"/>
       <c r="D377" s="33"/>
       <c r="E377" s="37"/>
@@ -44609,7 +44690,7 @@
     </row>
     <row r="378" spans="1:32" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A378" s="7"/>
-      <c r="B378" s="347"/>
+      <c r="B378" s="355"/>
       <c r="C378" s="29"/>
       <c r="D378" s="34"/>
       <c r="E378" s="36"/>
@@ -54206,7 +54287,7 @@
     </row>
     <row r="700" spans="1:29" ht="15" customHeight="1">
       <c r="A700" s="9"/>
-      <c r="B700" s="348"/>
+      <c r="B700" s="356"/>
       <c r="C700" s="28"/>
       <c r="D700" s="33"/>
       <c r="E700" s="37"/>
@@ -54237,7 +54318,7 @@
     </row>
     <row r="701" spans="1:29" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A701" s="7"/>
-      <c r="B701" s="349"/>
+      <c r="B701" s="357"/>
       <c r="C701" s="29"/>
       <c r="D701" s="34"/>
       <c r="E701" s="36"/>
@@ -54687,7 +54768,7 @@
     </row>
     <row r="716" spans="1:29" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A716" s="6"/>
-      <c r="B716" s="348"/>
+      <c r="B716" s="356"/>
       <c r="C716" s="28"/>
       <c r="D716" s="33"/>
       <c r="E716" s="37"/>
@@ -54715,7 +54796,7 @@
     </row>
     <row r="717" spans="1:29" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A717" s="114"/>
-      <c r="B717" s="349"/>
+      <c r="B717" s="357"/>
       <c r="C717" s="29"/>
       <c r="D717" s="34"/>
       <c r="E717" s="36"/>
